--- a/insight_article/Insight_2/output_correl.xlsx
+++ b/insight_article/Insight_2/output_correl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="128">
   <si>
     <t>BDX_AVG_TIME_RETIREMENT</t>
   </si>
@@ -100,289 +100,304 @@
     <t>1.0***</t>
   </si>
   <si>
+    <t>-0.46***</t>
+  </si>
+  <si>
+    <t>-0.47***</t>
+  </si>
+  <si>
+    <t>-0.45***</t>
+  </si>
+  <si>
+    <t>-0.36***</t>
+  </si>
+  <si>
+    <t>0.04*</t>
+  </si>
+  <si>
+    <t>0.14***</t>
+  </si>
+  <si>
+    <t>-0.05*</t>
+  </si>
+  <si>
+    <t>0.25***</t>
+  </si>
+  <si>
+    <t>0.15***</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.06***</t>
+  </si>
+  <si>
+    <t>0.77***</t>
+  </si>
+  <si>
+    <t>0.16***</t>
+  </si>
+  <si>
+    <t>0.27***</t>
+  </si>
+  <si>
+    <t>-0.09***</t>
+  </si>
+  <si>
+    <t>0.24***</t>
+  </si>
+  <si>
+    <t>-0.21***</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>0.05**</t>
+  </si>
+  <si>
+    <t>-0.13***</t>
+  </si>
+  <si>
+    <t>-0.08***</t>
+  </si>
+  <si>
+    <t>0.93***</t>
+  </si>
+  <si>
+    <t>0.89***</t>
+  </si>
+  <si>
+    <t>0.18***</t>
+  </si>
+  <si>
+    <t>-0.18***</t>
+  </si>
+  <si>
+    <t>-0.27***</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.15***</t>
+  </si>
+  <si>
+    <t>-0.23***</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
     <t>-0.42***</t>
   </si>
   <si>
-    <t>-0.37***</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.15***</t>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>0.74***</t>
+  </si>
+  <si>
+    <t>0.7***</t>
+  </si>
+  <si>
+    <t>-0.12***</t>
+  </si>
+  <si>
+    <t>-0.05***</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.07***</t>
+  </si>
+  <si>
+    <t>0.31***</t>
+  </si>
+  <si>
+    <t>0.98***</t>
+  </si>
+  <si>
+    <t>-0.24***</t>
+  </si>
+  <si>
+    <t>-0.3***</t>
+  </si>
+  <si>
+    <t>-0.06**</t>
+  </si>
+  <si>
+    <t>-0.19***</t>
+  </si>
+  <si>
+    <t>-0.22***</t>
+  </si>
+  <si>
+    <t>-0.28***</t>
+  </si>
+  <si>
+    <t>-0.25***</t>
+  </si>
+  <si>
+    <t>-0.38***</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>0.88***</t>
+  </si>
+  <si>
+    <t>0.84***</t>
+  </si>
+  <si>
+    <t>-0.17***</t>
+  </si>
+  <si>
+    <t>0.03*</t>
+  </si>
+  <si>
+    <t>0.33***</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.17***</t>
+  </si>
+  <si>
+    <t>0.12***</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>-0.16***</t>
+  </si>
+  <si>
+    <t>-0.35***</t>
+  </si>
+  <si>
+    <t>0.07***</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>0.06**</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>-0.11***</t>
+  </si>
+  <si>
+    <t>0.13***</t>
+  </si>
+  <si>
+    <t>0.1***</t>
+  </si>
+  <si>
+    <t>0.09***</t>
+  </si>
+  <si>
+    <t>0.46***</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.11***</t>
+  </si>
+  <si>
+    <t>-0.14***</t>
+  </si>
+  <si>
+    <t>0.75***</t>
+  </si>
+  <si>
+    <t>0.52***</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.04**</t>
+  </si>
+  <si>
+    <t>0.64***</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.19***</t>
+  </si>
+  <si>
+    <t>0.42***</t>
+  </si>
+  <si>
+    <t>0.23***</t>
+  </si>
+  <si>
+    <t>-0.05**</t>
   </si>
   <si>
     <t>-0.04</t>
   </si>
   <si>
-    <t>0.31***</t>
-  </si>
-  <si>
-    <t>0.1**</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.22***</t>
-  </si>
-  <si>
-    <t>0.82***</t>
+    <t>0.21***</t>
+  </si>
+  <si>
+    <t>0.51***</t>
+  </si>
+  <si>
+    <t>0.68***</t>
+  </si>
+  <si>
+    <t>0.2***</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.19***</t>
-  </si>
-  <si>
-    <t>-0.17***</t>
-  </si>
-  <si>
-    <t>0.28***</t>
-  </si>
-  <si>
-    <t>-0.3***</t>
-  </si>
-  <si>
-    <t>-0.28***</t>
-  </si>
-  <si>
-    <t>-0.23***</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.22***</t>
-  </si>
-  <si>
-    <t>0.25***</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>0.9***</t>
-  </si>
-  <si>
-    <t>0.89***</t>
-  </si>
-  <si>
-    <t>-0.19***</t>
-  </si>
-  <si>
-    <t>-0.14***</t>
-  </si>
-  <si>
-    <t>-0.09*</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.15***</t>
-  </si>
-  <si>
-    <t>-0.31***</t>
-  </si>
-  <si>
-    <t>-0.18***</t>
-  </si>
-  <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>0.63***</t>
+    <t>0.08**</t>
+  </si>
+  <si>
+    <t>-0.06*</t>
+  </si>
+  <si>
+    <t>0.04**</t>
+  </si>
+  <si>
+    <t>-0.26***</t>
+  </si>
+  <si>
+    <t>0.41***</t>
+  </si>
+  <si>
+    <t>-0.2***</t>
   </si>
   <si>
     <t>0.62***</t>
   </si>
   <si>
-    <t>0.11**</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.29***</t>
-  </si>
-  <si>
-    <t>0.1*</t>
-  </si>
-  <si>
-    <t>0.98***</t>
-  </si>
-  <si>
-    <t>0.24***</t>
-  </si>
-  <si>
-    <t>-0.13**</t>
-  </si>
-  <si>
-    <t>-0.26***</t>
-  </si>
-  <si>
-    <t>-0.12**</t>
-  </si>
-  <si>
-    <t>0.09*</t>
-  </si>
-  <si>
-    <t>0.16***</t>
-  </si>
-  <si>
-    <t>0.84***</t>
-  </si>
-  <si>
-    <t>0.81***</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.34***</t>
-  </si>
-  <si>
-    <t>0.12**</t>
-  </si>
-  <si>
-    <t>0.35***</t>
-  </si>
-  <si>
-    <t>0.23***</t>
-  </si>
-  <si>
-    <t>-0.27***</t>
-  </si>
-  <si>
-    <t>-0.2***</t>
-  </si>
-  <si>
-    <t>-0.21***</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.27***</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.11**</t>
-  </si>
-  <si>
-    <t>0.21***</t>
-  </si>
-  <si>
-    <t>0.2***</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>0.43***</t>
-  </si>
-  <si>
-    <t>0.74***</t>
-  </si>
-  <si>
-    <t>0.17***</t>
-  </si>
-  <si>
-    <t>-0.16***</t>
-  </si>
-  <si>
-    <t>0.65***</t>
-  </si>
-  <si>
-    <t>0.53***</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.1**</t>
-  </si>
-  <si>
-    <t>0.59***</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>-0.25***</t>
-  </si>
-  <si>
-    <t>0.4***</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.1*</t>
-  </si>
-  <si>
-    <t>0.64***</t>
-  </si>
-  <si>
-    <t>0.14***</t>
-  </si>
-  <si>
-    <t>-0.24***</t>
-  </si>
-  <si>
-    <t>-0.13***</t>
-  </si>
-  <si>
-    <t>0.36***</t>
-  </si>
-  <si>
-    <t>-0.29***</t>
-  </si>
-  <si>
-    <t>0.47***</t>
-  </si>
-  <si>
-    <t>0.13***</t>
-  </si>
-  <si>
-    <t>0.97***</t>
-  </si>
-  <si>
-    <t>0.32***</t>
-  </si>
-  <si>
-    <t>0.13**</t>
-  </si>
-  <si>
-    <t>0.37***</t>
-  </si>
-  <si>
-    <t>0.87***</t>
-  </si>
-  <si>
-    <t>0.26***</t>
+    <t>0.5***</t>
+  </si>
+  <si>
+    <t>-0.1***</t>
+  </si>
+  <si>
+    <t>-0.04*</t>
+  </si>
+  <si>
+    <t>0.95***</t>
+  </si>
+  <si>
+    <t>0.61***</t>
   </si>
 </sst>
 </file>
@@ -840,55 +855,55 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
       </c>
       <c r="U2" t="s">
         <v>45</v>
@@ -897,22 +912,22 @@
         <v>46</v>
       </c>
       <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
       <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
         <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -926,16 +941,16 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>53</v>
@@ -947,58 +962,58 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" t="s">
         <v>32</v>
       </c>
-      <c r="T3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>66</v>
-      </c>
       <c r="AB3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1006,10 +1021,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1018,73 +1033,73 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" t="s">
-        <v>73</v>
-      </c>
-      <c r="T4" t="s">
-        <v>74</v>
-      </c>
-      <c r="U4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" t="s">
-        <v>77</v>
-      </c>
-      <c r="X4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>78</v>
-      </c>
       <c r="Z4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1092,10 +1107,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
@@ -1104,73 +1119,73 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" t="s">
         <v>83</v>
       </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" t="s">
-        <v>32</v>
-      </c>
       <c r="T5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="V5" t="s">
         <v>86</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="Z5" t="s">
         <v>81</v>
       </c>
       <c r="AA5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1178,82 +1193,82 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" t="s">
         <v>88</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>66</v>
-      </c>
       <c r="R6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" t="s">
+        <v>84</v>
+      </c>
+      <c r="W6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" t="s">
         <v>92</v>
       </c>
-      <c r="U6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>53</v>
-      </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s">
         <v>93</v>
@@ -1264,85 +1279,85 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" t="s">
         <v>56</v>
       </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" t="s">
-        <v>98</v>
-      </c>
       <c r="V7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1350,85 +1365,85 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
       <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q8" t="s">
         <v>64</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
         <v>94</v>
       </c>
       <c r="Z8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AB8" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1436,85 +1451,85 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
       </c>
       <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" t="s">
+        <v>105</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
         <v>102</v>
       </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" t="s">
-        <v>98</v>
-      </c>
-      <c r="U9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="AA9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1522,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -1531,76 +1546,76 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
         <v>76</v>
       </c>
       <c r="Q10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" t="s">
+        <v>99</v>
+      </c>
+      <c r="V10" t="s">
+        <v>112</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" t="s">
         <v>105</v>
       </c>
-      <c r="R10" t="s">
-        <v>92</v>
-      </c>
-      <c r="S10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" t="s">
-        <v>108</v>
-      </c>
-      <c r="U10" t="s">
-        <v>88</v>
-      </c>
-      <c r="V10" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>86</v>
-      </c>
       <c r="AB10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1608,85 +1623,85 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
         <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="S11" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="W11" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="Y11" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Z11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="AB11" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1694,85 +1709,85 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="R12" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="V12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="W12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y12" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="Z12" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="AA12" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="AB12" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1780,85 +1795,85 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="M13" t="s">
         <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="R13" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="T13" t="s">
+        <v>119</v>
+      </c>
+      <c r="U13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" t="s">
         <v>54</v>
       </c>
-      <c r="U13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V13" t="s">
-        <v>63</v>
-      </c>
-      <c r="W13" t="s">
-        <v>50</v>
-      </c>
       <c r="X13" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="Z13" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="AA13" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="AB13" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1866,85 +1881,85 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N14" t="s">
         <v>27</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Q14" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="T14" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="W14" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="X14" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB14" t="s">
         <v>109</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1952,85 +1967,85 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
         <v>36</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" t="s">
-        <v>49</v>
       </c>
       <c r="O15" t="s">
         <v>27</v>
       </c>
       <c r="P15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" t="s">
+        <v>99</v>
+      </c>
+      <c r="U15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" t="s">
         <v>115</v>
       </c>
-      <c r="Q15" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" t="s">
-        <v>49</v>
-      </c>
-      <c r="V15" t="s">
-        <v>33</v>
-      </c>
       <c r="W15" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="X15" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="Z15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB15" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2038,85 +2053,85 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="J16" t="s">
         <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M16" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P16" t="s">
         <v>27</v>
       </c>
       <c r="Q16" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="R16" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="S16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s">
         <v>71</v>
       </c>
       <c r="U16" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Y16" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="Z16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA16" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AB16" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2124,85 +2139,85 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
         <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="Q17" t="s">
         <v>27</v>
       </c>
       <c r="R17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17" t="s">
+        <v>59</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA17" t="s">
         <v>54</v>
       </c>
-      <c r="S17" t="s">
-        <v>68</v>
-      </c>
-      <c r="T17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" t="s">
-        <v>91</v>
-      </c>
-      <c r="W17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>49</v>
-      </c>
       <c r="AB17" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2210,85 +2225,85 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" t="s">
-        <v>87</v>
-      </c>
-      <c r="O18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>54</v>
       </c>
       <c r="R18" t="s">
         <v>27</v>
       </c>
       <c r="S18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s">
+        <v>72</v>
+      </c>
+      <c r="V18" t="s">
+        <v>98</v>
+      </c>
+      <c r="W18" t="s">
+        <v>93</v>
+      </c>
+      <c r="X18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y18" t="s">
         <v>84</v>
-      </c>
-      <c r="V18" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" t="s">
-        <v>63</v>
-      </c>
-      <c r="X18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>92</v>
       </c>
       <c r="Z18" t="s">
         <v>55</v>
       </c>
       <c r="AA18" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="AB18" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2296,85 +2311,85 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="R19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="U19" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="V19" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AB19" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2382,85 +2397,85 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O20" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="P20" t="s">
         <v>71</v>
       </c>
       <c r="Q20" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="R20" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="T20" t="s">
         <v>27</v>
       </c>
       <c r="U20" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="V20" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Y20" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="Z20" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="AA20" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2471,82 +2486,82 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="T21" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
       </c>
       <c r="V21" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="W21" t="s">
+        <v>102</v>
+      </c>
+      <c r="X21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA21" t="s">
         <v>64</v>
       </c>
-      <c r="X21" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>116</v>
-      </c>
       <c r="AB21" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2557,82 +2572,82 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" t="s">
         <v>95</v>
       </c>
-      <c r="K22" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" t="s">
-        <v>107</v>
-      </c>
-      <c r="M22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" t="s">
-        <v>77</v>
-      </c>
       <c r="O22" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="P22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
         <v>27</v>
       </c>
       <c r="W22" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="X22" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="Y22" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="Z22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA22" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="AB22" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2640,85 +2655,85 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" t="s">
         <v>93</v>
       </c>
-      <c r="I23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" t="s">
-        <v>90</v>
-      </c>
-      <c r="M23" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" t="s">
-        <v>110</v>
-      </c>
       <c r="O23" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="R23" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="S23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="V23" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="W23" t="s">
         <v>27</v>
       </c>
       <c r="X23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="Z23" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AA23" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="AB23" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2726,85 +2741,85 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" t="s">
         <v>46</v>
       </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" t="s">
-        <v>114</v>
-      </c>
-      <c r="O24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>76</v>
-      </c>
       <c r="R24" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="S24" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="V24" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="W24" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="X24" t="s">
         <v>27</v>
       </c>
       <c r="Y24" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AA24" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="AB24" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2812,85 +2827,85 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
         <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U25" t="s">
         <v>46</v>
       </c>
-      <c r="P25" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>85</v>
-      </c>
-      <c r="R25" t="s">
-        <v>92</v>
-      </c>
-      <c r="S25" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s">
-        <v>76</v>
-      </c>
       <c r="V25" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="W25" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="X25" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s">
         <v>27</v>
       </c>
       <c r="Z25" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="AA25" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AB25" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2898,85 +2913,85 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
         <v>102</v>
       </c>
-      <c r="H26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" t="s">
-        <v>77</v>
-      </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M26" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="R26" t="s">
         <v>55</v>
       </c>
       <c r="S26" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="U26" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W26" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="X26" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Y26" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="Z26" t="s">
         <v>27</v>
       </c>
       <c r="AA26" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="AB26" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2984,85 +2999,85 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="M27" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" t="s">
         <v>54</v>
       </c>
-      <c r="N27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" t="s">
-        <v>107</v>
-      </c>
-      <c r="P27" t="s">
-        <v>94</v>
-      </c>
       <c r="Q27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="S27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T27" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="V27" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="W27" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="X27" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="Y27" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="Z27" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="AA27" t="s">
         <v>27</v>
       </c>
       <c r="AB27" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3070,82 +3085,82 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
         <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>110</v>
+      </c>
+      <c r="M28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>125</v>
+      </c>
+      <c r="R28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" t="s">
+        <v>98</v>
+      </c>
+      <c r="T28" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28" t="s">
+        <v>103</v>
+      </c>
+      <c r="W28" t="s">
         <v>64</v>
       </c>
-      <c r="J28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" t="s">
-        <v>114</v>
-      </c>
-      <c r="N28" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" t="s">
-        <v>108</v>
-      </c>
-      <c r="S28" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" t="s">
-        <v>113</v>
-      </c>
-      <c r="U28" t="s">
-        <v>120</v>
-      </c>
-      <c r="V28" t="s">
-        <v>91</v>
-      </c>
-      <c r="W28" t="s">
-        <v>50</v>
-      </c>
       <c r="X28" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Y28" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="Z28" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AA28" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="AB28" t="s">
         <v>27</v>
